--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="210">
   <si>
     <t>UseCaseName</t>
   </si>
   <si>
-    <t>Admission Advice</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
   </si>
   <si>
     <t>UserStory</t>
-  </si>
-  <si>
-    <t>As a physician I can give advice to patient</t>
   </si>
   <si>
     <t>TestCase ID</t>
@@ -276,9 +270,6 @@
   </si>
   <si>
     <t>Verify entry Lastname along with spaces</t>
-  </si>
-  <si>
-    <t>Leave LastName field as empty and try to create account</t>
   </si>
   <si>
     <t>Tc008_Reg_useraccount</t>
@@ -616,9 +607,6 @@
     <t>Should not aceept and display error as candiate must have morethan 18years of  age</t>
   </si>
   <si>
-    <t>As expected signup link displayed at homepage</t>
-  </si>
-  <si>
     <t>GUI is good</t>
   </si>
   <si>
@@ -685,6 +673,37 @@
   </si>
   <si>
     <t>TOTAL STORY POINTS</t>
+  </si>
+  <si>
+    <t>Given Empty productname
+When user click on Search button
+Then message display zero prodcuts found with search</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>As a Customer
+I can Register with site 
+So that I can use software by login</t>
+  </si>
+  <si>
+    <t>Seems its comes under valid test</t>
+  </si>
+  <si>
+    <t>Leave firstname field as empty and try to create account</t>
+  </si>
+  <si>
+    <t>Should accept email and allow user to fill other registration data</t>
+  </si>
+  <si>
+    <t>Enter duplicate email without domain selection</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>should not allow and display appropriate error message</t>
   </si>
 </sst>
 </file>
@@ -902,7 +921,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -995,13 +1014,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1299,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD547"/>
+  <dimension ref="A1:AD548"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1325,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1356,14 +1378,14 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" ht="48.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="34"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1394,10 +1416,10 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1430,7 +1452,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>44422</v>
@@ -1498,86 +1520,82 @@
     </row>
     <row r="6" spans="1:30" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="30">
       <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>188</v>
-      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:30" ht="90">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I8" s="28"/>
     </row>
@@ -1594,27 +1612,29 @@
     </row>
     <row r="10" spans="1:30" ht="30">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="63" customHeight="1">
@@ -1622,16 +1642,16 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="28"/>
@@ -1657,23 +1677,23 @@
     </row>
     <row r="13" spans="1:30" ht="105">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="28"/>
@@ -1700,31 +1720,31 @@
     </row>
     <row r="15" spans="1:30" ht="45">
       <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="30">
@@ -1732,16 +1752,16 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="28"/>
@@ -1751,16 +1771,16 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="28"/>
@@ -1770,16 +1790,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="28"/>
@@ -1803,25 +1823,25 @@
     </row>
     <row r="20" spans="1:15" ht="45">
       <c r="A20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="28"/>
@@ -1831,16 +1851,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="28"/>
@@ -1850,16 +1870,16 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" s="21">
         <v>1234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="28"/>
@@ -1869,16 +1889,16 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="28"/>
@@ -1888,35 +1908,38 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="28"/>
+      <c r="J24" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="30">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="28"/>
@@ -1937,25 +1960,25 @@
     </row>
     <row r="27" spans="1:15" ht="45">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="28"/>
@@ -1976,25 +1999,25 @@
     </row>
     <row r="29" spans="1:15" ht="30">
       <c r="A29" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="28"/>
@@ -2004,16 +2027,16 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="28"/>
@@ -2023,16 +2046,16 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="28"/>
@@ -2042,16 +2065,16 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="28"/>
@@ -2069,25 +2092,25 @@
     </row>
     <row r="34" spans="1:9" ht="45">
       <c r="A34" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="28"/>
@@ -2097,16 +2120,16 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="28"/>
@@ -2116,16 +2139,16 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F36" s="21">
         <v>1234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="28"/>
@@ -2135,16 +2158,16 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="28"/>
@@ -2154,16 +2177,16 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="28"/>
@@ -2173,16 +2196,16 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="28"/>
@@ -2200,25 +2223,25 @@
     </row>
     <row r="41" spans="1:9" ht="45">
       <c r="A41" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="28"/>
@@ -2236,25 +2259,25 @@
     </row>
     <row r="43" spans="1:9" ht="30">
       <c r="A43" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="28"/>
@@ -2264,16 +2287,16 @@
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="28"/>
@@ -2283,16 +2306,16 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="28"/>
@@ -2302,35 +2325,35 @@
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="60.75">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="28"/>
@@ -2340,16 +2363,16 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="28"/>
@@ -2359,16 +2382,16 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="28"/>
@@ -2378,16 +2401,16 @@
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="28"/>
@@ -2405,22 +2428,22 @@
     </row>
     <row r="52" spans="1:9" ht="30">
       <c r="A52" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G52" s="7"/>
     </row>
@@ -2429,13 +2452,13 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G53" s="7"/>
     </row>
@@ -2444,16 +2467,16 @@
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="45">
@@ -2461,16 +2484,16 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2486,67 +2509,67 @@
     </row>
     <row r="57" spans="1:9" ht="30">
       <c r="A57" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="F57" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9">
       <c r="D58" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" ht="45">
       <c r="D59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" ht="45">
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="28"/>
@@ -2556,16 +2579,16 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="28"/>
@@ -2575,14 +2598,14 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="28"/>
@@ -2600,22 +2623,22 @@
     </row>
     <row r="64" spans="1:9" ht="30">
       <c r="A64" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -2626,13 +2649,13 @@
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -2643,16 +2666,16 @@
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="28"/>
@@ -2670,22 +2693,22 @@
     </row>
     <row r="68" spans="1:9" ht="30">
       <c r="A68" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -2696,13 +2719,13 @@
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -2713,16 +2736,16 @@
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="G70" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="28"/>
@@ -2732,90 +2755,90 @@
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="31"/>
-    </row>
-    <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="7" t="s">
+    <row r="72" spans="1:9" ht="30">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="28"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9" ht="30">
+      <c r="A74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="F74" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="28"/>
-    </row>
-    <row r="74" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="39.75" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="28"/>
@@ -2825,16 +2848,16 @@
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="28"/>
@@ -2844,16 +2867,16 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="28"/>
@@ -2863,16 +2886,16 @@
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="28"/>
@@ -2882,179 +2905,181 @@
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="7">
-        <v>12345678</v>
+        <v>141</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="F80" s="7">
+        <v>12345678</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="28"/>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="27"/>
-    </row>
-    <row r="82" spans="1:10" ht="30">
-      <c r="A82" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" s="7" t="s">
+    <row r="81" spans="1:10" ht="45">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="28"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="27"/>
+    </row>
+    <row r="83" spans="1:10" ht="30">
+      <c r="A83" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="F83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="28"/>
-    </row>
-    <row r="83" spans="1:10" ht="90">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="28"/>
     </row>
-    <row r="84" spans="1:10" ht="45">
+    <row r="84" spans="1:10" ht="90">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="27"/>
-    </row>
-    <row r="86" spans="1:10" ht="30">
-      <c r="A86" s="7" t="s">
+    <row r="85" spans="1:10" ht="45">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="90">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="28"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="27"/>
+    </row>
+    <row r="87" spans="1:10" ht="30">
+      <c r="A87" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="F87" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G87" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="90">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>160</v>
+        <v>16</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30">
@@ -3062,413 +3087,419 @@
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F89" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="G89" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-    </row>
-    <row r="91" spans="1:10" ht="30">
-      <c r="A91" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+    </row>
+    <row r="92" spans="1:10" ht="30">
+      <c r="A92" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="F92" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="30">
+    </row>
+    <row r="93" spans="1:10" ht="27.75" customHeight="1">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F93" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G93" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H93" s="7"/>
-      <c r="I93" s="28"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="94" spans="1:10" ht="30">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F94" s="7"/>
       <c r="G94" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="27"/>
-    </row>
-    <row r="96" spans="1:10" ht="30">
-      <c r="A96" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C96" s="7" t="s">
+    <row r="95" spans="1:10" ht="30">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="28"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" spans="1:9" ht="30">
+      <c r="A97" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="F97" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="28"/>
-    </row>
-    <row r="97" spans="1:9" ht="90">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="28"/>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="90">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" ht="45">
-      <c r="A99" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>18</v>
-      </c>
+    <row r="99" spans="1:9" ht="30">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="28"/>
     </row>
     <row r="100" spans="1:9" ht="45">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+      <c r="A100" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D100" s="7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
+    <row r="101" spans="1:9" ht="45">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H101" s="7"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
-      <c r="A102" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>22</v>
-      </c>
+    <row r="102" spans="1:9">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
       <c r="H102" s="7"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" ht="90">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+    <row r="103" spans="1:9" ht="30">
+      <c r="A103" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="F103" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G103" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" ht="90">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
+    <row r="106" spans="1:9" ht="30">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H106" s="7"/>
       <c r="I106" s="28"/>
     </row>
-    <row r="107" spans="1:9" ht="30">
-      <c r="A107" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>22</v>
-      </c>
+    <row r="107" spans="1:9">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
       <c r="H107" s="7"/>
       <c r="I107" s="28"/>
     </row>
-    <row r="108" spans="1:9" ht="90">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+    <row r="108" spans="1:9" ht="30">
+      <c r="A108" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="F108" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G108" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="28"/>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="90">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="28"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="45">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="28"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="D111" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="H111" s="7"/>
       <c r="I111" s="28"/>
     </row>
@@ -8267,6 +8298,17 @@
       <c r="G547" s="7"/>
       <c r="H547" s="7"/>
       <c r="I547" s="28"/>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" s="7"/>
+      <c r="B548" s="7"/>
+      <c r="C548" s="7"/>
+      <c r="D548" s="7"/>
+      <c r="E548" s="7"/>
+      <c r="F548" s="7"/>
+      <c r="G548" s="7"/>
+      <c r="H548" s="7"/>
+      <c r="I548" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8281,7 +8323,6 @@
     <hyperlink ref="C29" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
     <hyperlink ref="C34" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
     <hyperlink ref="C41" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
-    <hyperlink ref="C13" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
     <hyperlink ref="F43" r:id="rId3"/>
     <hyperlink ref="F52" r:id="rId4"/>
     <hyperlink ref="F54" r:id="rId5"/>
@@ -8293,18 +8334,20 @@
     <hyperlink ref="F68" r:id="rId11"/>
     <hyperlink ref="F71" r:id="rId12"/>
     <hyperlink ref="F70" r:id="rId13"/>
-    <hyperlink ref="F73" r:id="rId14"/>
-    <hyperlink ref="F77" r:id="rId15"/>
-    <hyperlink ref="F78" r:id="rId16"/>
-    <hyperlink ref="F82" r:id="rId17"/>
-    <hyperlink ref="F91" r:id="rId18"/>
-    <hyperlink ref="F86" r:id="rId19"/>
-    <hyperlink ref="F96" r:id="rId20"/>
-    <hyperlink ref="F102" r:id="rId21"/>
-    <hyperlink ref="F107" r:id="rId22"/>
+    <hyperlink ref="F74" r:id="rId14"/>
+    <hyperlink ref="F78" r:id="rId15"/>
+    <hyperlink ref="F79" r:id="rId16"/>
+    <hyperlink ref="F83" r:id="rId17"/>
+    <hyperlink ref="F92" r:id="rId18"/>
+    <hyperlink ref="F87" r:id="rId19"/>
+    <hyperlink ref="F97" r:id="rId20"/>
+    <hyperlink ref="F103" r:id="rId21"/>
+    <hyperlink ref="F108" r:id="rId22"/>
+    <hyperlink ref="C13" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
+    <hyperlink ref="F47" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -8312,8 +8355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8327,41 +8370,41 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -8378,7 +8421,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8390,12 +8433,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8412,7 +8455,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -8424,11 +8467,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Rroduct_Search" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="System_Integration_Testing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="233">
   <si>
     <t>UseCaseName</t>
   </si>
@@ -361,11 +361,332 @@
     <t>Verifying email with valid range max 100 with alphabet characters</t>
   </si>
   <si>
-    <t>Verifying email with valid range min100 with alphabet+Numeric characters</t>
+    <t>Verifying email with invalid range min2 with a lphabet characters</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>should not accept the email and allow the user to fill other registration data</t>
+  </si>
+  <si>
+    <t>verifying email with invalid range min2 with numeric characters</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should not accept the email </t>
+  </si>
+  <si>
+    <t>verifying email with invalid range above 100 characters</t>
+  </si>
+  <si>
+    <t>should not allow user to type email</t>
+  </si>
+  <si>
+    <t>verifying email with invalid range min2 with special characters</t>
+  </si>
+  <si>
+    <t>Verifying email textbox entrywith Invalid characters</t>
+  </si>
+  <si>
+    <t>Verifying email textbox with Invaild domain address</t>
+  </si>
+  <si>
+    <t>Enter email with invalid domain name</t>
+  </si>
+  <si>
+    <t>info@gmail.com</t>
+  </si>
+  <si>
+    <t>Should not allow user to crateate account with other domain names</t>
+  </si>
+  <si>
+    <t>Tc011_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Tc012_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Tc013_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verify email textbox with duplication email</t>
+  </si>
+  <si>
+    <t>Enter duplicate email with hotmail.com</t>
+  </si>
+  <si>
+    <t>Should not allow and  display error message "user already have account with this email "</t>
+  </si>
+  <si>
+    <t>Enter duplicate email with outlook.com</t>
+  </si>
+  <si>
+    <t>info@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tc014_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Tc015_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verify Password entry with valid data</t>
+  </si>
+  <si>
+    <t>Enter password entry with valid range min 8 with alphabet characters</t>
+  </si>
+  <si>
+    <t>abcdefgh</t>
+  </si>
+  <si>
+    <t>Enter password entry with valid range min 8 with alphabets+numerics</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t>Should accept and allow account creation with valid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should aceept and allow account creation </t>
+  </si>
+  <si>
+    <t>Enter password entry with valid range min 8 with alpabets+Special characters</t>
+  </si>
+  <si>
+    <t>abcd@#20</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Enter password entry with valid range min 8 with alpabets+numerics+SpecialCharcters</t>
+  </si>
+  <si>
+    <t>abc1@20#</t>
+  </si>
+  <si>
+    <t>Enter password entry with only numeric characters</t>
+  </si>
+  <si>
+    <t>Enter password entry with more than 8 characters wit alphabets+numeric_Special Characters</t>
+  </si>
+  <si>
+    <t>abcd12#20111abc</t>
+  </si>
+  <si>
+    <t>Tc016_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Verify Password entry with Invalid data</t>
+  </si>
+  <si>
+    <t>Enter password with lessthan 8 characters</t>
+  </si>
+  <si>
+    <t>should not allow user to to create account with invalid password range and display error message</t>
+  </si>
+  <si>
+    <t>Type firstname and password characters same as</t>
+  </si>
+  <si>
+    <t>Shoud not allow display error message</t>
+  </si>
+  <si>
+    <t>Type lastname and password characters same as</t>
+  </si>
+  <si>
+    <t>Should not allow display error message</t>
+  </si>
+  <si>
+    <t>Verify password encryption criteria</t>
+  </si>
+  <si>
+    <t>Verify password display in entrypted mode</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>Should not allow user to watch password</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Try to copy password from textbox</t>
+  </si>
+  <si>
+    <t>Shoud not allow user to copy password</t>
+  </si>
+  <si>
+    <t>Tc017_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>verify Retype password with valid data</t>
+  </si>
+  <si>
+    <t>should accept and match with the previous password</t>
+  </si>
+  <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>Retype password with characters morethan previous password</t>
+  </si>
+  <si>
+    <t>should not allow and display error as " password should match with previous password"</t>
+  </si>
+  <si>
+    <t>password other than previous password</t>
+  </si>
+  <si>
+    <t>Tc018_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>Tc019_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>verify date of birth with valid data</t>
+  </si>
+  <si>
+    <t>should accept DOB</t>
+  </si>
+  <si>
+    <t>user enter valid DOB</t>
+  </si>
+  <si>
+    <t>user valid  DOB should be morethan 18 years</t>
+  </si>
+  <si>
+    <t>should accept and allow user to register</t>
+  </si>
+  <si>
+    <t>Tc020_Reg_useraccount</t>
+  </si>
+  <si>
+    <t>verify DOB with invalid data</t>
+  </si>
+  <si>
+    <t>enter I nvalid DOB</t>
+  </si>
+  <si>
+    <t>Should not aceept and display error as candiate must have morethan 18years of  age</t>
+  </si>
+  <si>
+    <t>GUI is good</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>System  not accept firsname with min characters</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>USERSTORY</t>
+  </si>
+  <si>
+    <t>Product Search</t>
+  </si>
+  <si>
+    <t>User able to search available products with productname or product specifications</t>
+  </si>
+  <si>
+    <t>As a customer
+ I can search product 
+So that I can proceed to Buy product</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Given site url
+When Enter prodcut name at search editbox
+And click on Search Button
+Then All Releated Product should be displayed</t>
+  </si>
+  <si>
+    <t>Given product specification at search editbox
+And  click on Search button
+Then display releated products</t>
+  </si>
+  <si>
+    <t>Given Product name
+When user click on Clear button
+Then productname should be cleared from editbox</t>
+  </si>
+  <si>
+    <t>Given Product name and click on search
+When user click on Low-to-High button
+Then Product list should display in low to hight order</t>
+  </si>
+  <si>
+    <t>STORY POINT dev team</t>
+  </si>
+  <si>
+    <t>STORY POINTS testing team</t>
+  </si>
+  <si>
+    <t>TOTAL STORY POINTS</t>
+  </si>
+  <si>
+    <t>Given Empty productname
+When user click on Search button
+Then message display zero prodcuts found with search</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>As a Customer
+I can Register with site 
+So that I can use software by login</t>
+  </si>
+  <si>
+    <t>Seems its comes under valid test</t>
+  </si>
+  <si>
+    <t>Leave firstname field as empty and try to create account</t>
+  </si>
+  <si>
+    <t>Should accept email and allow user to fill other registration data</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Seems this conditions not required here</t>
+  </si>
+  <si>
+    <t>Seems not necessary</t>
+  </si>
+  <si>
+    <t>Seems this condition comes under valid test</t>
+  </si>
+  <si>
+    <t>Verifying email with valid range max100 with alphabet+Numeric characters</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verifying email with valid range min100 with special characters  </t>
+      <t xml:space="preserve">Verifying email with valid range max100 with special characters  </t>
     </r>
     <r>
       <rPr>
@@ -379,338 +700,96 @@
     </r>
   </si>
   <si>
-    <t>Verifying email with invalid range min2 with a lphabet characters</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>should not accept the email and allow the user to fill other registration data</t>
-  </si>
-  <si>
-    <t>verifying email with invalid range min2 with numeric characters</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should not accept the email </t>
-  </si>
-  <si>
-    <t>verifying email with invalid range above 100 characters</t>
-  </si>
-  <si>
-    <t>should not allow user to type email</t>
-  </si>
-  <si>
-    <t>verifying email with invalid range min2 with special characters</t>
-  </si>
-  <si>
-    <t>Verifying email textbox entrywith Invalid characters</t>
-  </si>
-  <si>
-    <t>Verifying email textbox with Invaild domain address</t>
-  </si>
-  <si>
-    <t>Enter email with invalid domain name</t>
-  </si>
-  <si>
-    <t>info@gmail.com</t>
-  </si>
-  <si>
-    <t>Should not allow user to crateate account with other domain names</t>
-  </si>
-  <si>
-    <t>Tc011_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>Tc012_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>Tc013_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>Verify email textbox with duplication email</t>
-  </si>
-  <si>
-    <t>Enter duplicate email with hotmail.com</t>
-  </si>
-  <si>
-    <t>Should not allow and  display error message "user already have account with this email "</t>
-  </si>
-  <si>
-    <t>Enter duplicate email with outlook.com</t>
-  </si>
-  <si>
-    <t>info@hotmail.com</t>
-  </si>
-  <si>
-    <t>Tc014_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>Tc015_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>Verify Password entry with valid data</t>
-  </si>
-  <si>
-    <t>Enter password entry with valid range min 8 with alphabet characters</t>
-  </si>
-  <si>
-    <t>abcdefgh</t>
-  </si>
-  <si>
-    <t>Enter password entry with valid range min 8 with alphabets+numerics</t>
-  </si>
-  <si>
-    <t>abcd1234</t>
-  </si>
-  <si>
-    <t>Should accept and allow account creation with valid password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should aceept and allow account creation </t>
-  </si>
-  <si>
-    <t>Enter password entry with valid range min 8 with alpabets+Special characters</t>
-  </si>
-  <si>
-    <t>abcd@#20</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Enter password entry with valid range min 8 with alpabets+numerics+SpecialCharcters</t>
-  </si>
-  <si>
-    <t>abc1@20#</t>
-  </si>
-  <si>
-    <t>Enter password entry with only numeric characters</t>
-  </si>
-  <si>
-    <t>Enter password entry with more than 8 characters wit alphabets+numeric_Special Characters</t>
-  </si>
-  <si>
-    <t>abcd12#20111abc</t>
-  </si>
-  <si>
-    <t>Tc016_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>Verify Password entry with Invalid data</t>
-  </si>
-  <si>
-    <t>Enter password with lessthan 8 characters</t>
-  </si>
-  <si>
-    <t>should not allow user to to create account with invalid password range and display error message</t>
-  </si>
-  <si>
-    <t>Type firstname and password characters same as</t>
-  </si>
-  <si>
-    <t>Shoud not allow display error message</t>
-  </si>
-  <si>
-    <t>Type lastname and password characters same as</t>
-  </si>
-  <si>
-    <t>Should not allow display error message</t>
-  </si>
-  <si>
-    <t>Verify password encryption criteria</t>
-  </si>
-  <si>
-    <t>Verify password display in entrypted mode</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>Should not allow user to watch password</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Try to copy password from textbox</t>
-  </si>
-  <si>
-    <t>Shoud not allow user to copy password</t>
-  </si>
-  <si>
-    <t>Tc017_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>verify Retype password with valid data</t>
-  </si>
-  <si>
-    <t>should accept and match with the previous password</t>
-  </si>
-  <si>
-    <t>step4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retype  password</t>
-  </si>
-  <si>
-    <t>Retype password with characters morethan previous password</t>
-  </si>
-  <si>
-    <t>should not allow and display error as " password should match with previous password"</t>
-  </si>
-  <si>
-    <t>password other than previous password</t>
-  </si>
-  <si>
-    <t>verify password with invalid data</t>
-  </si>
-  <si>
-    <t>Tc018_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>Tc019_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>verify date of birth with valid data</t>
-  </si>
-  <si>
-    <t>should accept DOB</t>
-  </si>
-  <si>
-    <t>user enter valid DOB</t>
-  </si>
-  <si>
-    <t>user valid  DOB should be morethan 18 years</t>
-  </si>
-  <si>
-    <t>should accept and allow user to register</t>
-  </si>
-  <si>
-    <t>Tc020_Reg_useraccount</t>
-  </si>
-  <si>
-    <t>verify DOB with invalid data</t>
-  </si>
-  <si>
-    <t>enter I nvalid DOB</t>
-  </si>
-  <si>
-    <t>should not accept and display enter valid DOB</t>
-  </si>
-  <si>
-    <t>Should not aceept and display error as candiate must have morethan 18years of  age</t>
-  </si>
-  <si>
-    <t>GUI is good</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>System  not accept firsname with min characters</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>EPIC</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>USERSTORY</t>
-  </si>
-  <si>
-    <t>Product Search</t>
-  </si>
-  <si>
-    <t>User able to search available products with productname or product specifications</t>
-  </si>
-  <si>
-    <t>As a customer
- I can search product 
-So that I can proceed to Buy product</t>
-  </si>
-  <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>Given site url
-When Enter prodcut name at search editbox
-And click on Search Button
-Then All Releated Product should be displayed</t>
-  </si>
-  <si>
-    <t>Given product specification at search editbox
-And  click on Search button
-Then display releated products</t>
-  </si>
-  <si>
-    <t>Given Product name
-When user click on Clear button
-Then productname should be cleared from editbox</t>
-  </si>
-  <si>
-    <t>Given Product name and click on search
-When user click on Low-to-High button
-Then Product list should display in low to hight order</t>
-  </si>
-  <si>
-    <t>STORY POINT dev team</t>
-  </si>
-  <si>
-    <t>STORY POINTS testing team</t>
-  </si>
-  <si>
-    <t>TOTAL STORY POINTS</t>
-  </si>
-  <si>
-    <t>Given Empty productname
-When user click on Search button
-Then message display zero prodcuts found with search</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>As a Customer
-I can Register with site 
-So that I can use software by login</t>
-  </si>
-  <si>
-    <t>Seems its comes under valid test</t>
-  </si>
-  <si>
-    <t>Leave firstname field as empty and try to create account</t>
-  </si>
-  <si>
-    <t>Should accept email and allow user to fill other registration data</t>
-  </si>
-  <si>
-    <t>Enter duplicate email without domain selection</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>should not allow and display appropriate error message</t>
+    <t>Enter email with invalid domain with spell mistake</t>
+  </si>
+  <si>
+    <t>info@outlkk.com</t>
+  </si>
+  <si>
+    <t>Enter email without enter domain name</t>
+  </si>
+  <si>
+    <t>verifying email entry with empty data</t>
+  </si>
+  <si>
+    <t>Leave email field and try to create account</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Should not allow user to create account display error message "You can't leave this field empty"</t>
+  </si>
+  <si>
+    <t>Ente password along with spaces</t>
+  </si>
+  <si>
+    <t>ab  cd</t>
+  </si>
+  <si>
+    <t>should not allow user to create account and display error message</t>
+  </si>
+  <si>
+    <t>verify Retyp password with invalid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter retype password entry same as previous previous password</t>
+  </si>
+  <si>
+    <t>Sign up link visible at homepage</t>
+  </si>
+  <si>
+    <t>TestDescription</t>
+  </si>
+  <si>
+    <t>TestName/ID</t>
+  </si>
+  <si>
+    <t>TestSteps</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>SIT_Testcase_001</t>
+  </si>
+  <si>
+    <t>Verifying integration between Admin,Customer,Seller Module</t>
+  </si>
+  <si>
+    <t>1. Login As admin
+2. Create Seller Account
+3. Login as seller
+4. Add Product to Database
+5. Login as Customer
+6. Browser Catalog
+7. Select Product  ,AddtoCart,PlaceOrder</t>
+  </si>
+  <si>
+    <t>Modifty Product price</t>
+  </si>
+  <si>
+    <t>1. Login as Seller
+2. Select Existing product
+3. Update price [Increase/decrease]
+4. Login as Customer
+5. Verify Latest Prices are updated</t>
+  </si>
+  <si>
+    <t>Latest prices will be updated at customer module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer can buy product </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,8 +819,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +1013,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1017,15 +1109,28 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1321,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD548"/>
+  <dimension ref="A1:AD554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1347,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1382,10 +1487,10 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="B2" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="39"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1544,7 +1649,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>13</v>
@@ -1575,8 +1680,12 @@
       <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="28"/>
+      <c r="H7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="90">
       <c r="A8" s="12"/>
@@ -1595,7 +1704,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I8" s="28"/>
     </row>
@@ -1634,7 +1743,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="63" customHeight="1">
@@ -1725,7 +1834,7 @@
       <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1741,10 +1850,10 @@
         <v>37</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="30">
@@ -1784,6 +1893,9 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="28"/>
+      <c r="J17" s="34" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="45">
       <c r="A18" s="7"/>
@@ -1828,7 +1940,7 @@
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1921,8 +2033,8 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="2" t="s">
-        <v>204</v>
+      <c r="J24" s="34" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30">
@@ -1965,14 +2077,14 @@
       <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>16</v>
@@ -2004,7 +2116,7 @@
       <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -2059,6 +2171,9 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="28"/>
+      <c r="J31" s="34" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="45">
       <c r="A32" s="7"/>
@@ -2079,7 +2194,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2090,14 +2205,14 @@
       <c r="H33" s="7"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" ht="45">
+    <row r="34" spans="1:10" ht="45">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -2115,7 +2230,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:9" ht="45">
+    <row r="35" spans="1:10" ht="45">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2134,7 +2249,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" ht="45">
+    <row r="36" spans="1:10" ht="45">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2153,7 +2268,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" ht="45">
+    <row r="37" spans="1:10" ht="45">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2172,7 +2287,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:10" ht="45">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2190,8 +2305,11 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="28"/>
-    </row>
-    <row r="39" spans="1:9" ht="30">
+      <c r="J38" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2210,7 +2328,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2221,14 +2339,14 @@
       <c r="H40" s="18"/>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" ht="45">
+    <row r="41" spans="1:10" ht="45">
       <c r="A41" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2246,7 +2364,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2257,7 +2375,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="29"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="7" t="s">
         <v>97</v>
       </c>
@@ -2282,7 +2400,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" ht="36.75" customHeight="1">
+    <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2301,7 +2419,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:10" ht="30">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2315,12 +2433,12 @@
         <v>51</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:10" ht="30">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2339,7 +2457,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" ht="60.75">
+    <row r="47" spans="1:10" ht="60.75">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2349,7 +2467,7 @@
       <c r="E47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="33" t="s">
         <v>90</v>
       </c>
       <c r="G47" s="7" t="s">
@@ -2358,7 +2476,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:10" ht="30">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2385,7 +2503,7 @@
         <v>91</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>16</v>
@@ -2404,7 +2522,7 @@
         <v>92</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>16</v>
@@ -2428,7 +2546,7 @@
     </row>
     <row r="52" spans="1:9" ht="30">
       <c r="A52" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>96</v>
@@ -2472,8 +2590,8 @@
       <c r="E54" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>93</v>
+      <c r="F54" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>95</v>
@@ -2509,10 +2627,10 @@
     </row>
     <row r="57" spans="1:9" ht="30">
       <c r="A57" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
@@ -2547,13 +2665,13 @@
         <v>40</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="28"/>
@@ -2563,13 +2681,13 @@
         <v>43</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="28"/>
@@ -2582,13 +2700,13 @@
         <v>58</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="28"/>
@@ -2601,11 +2719,11 @@
         <v>63</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="28"/>
@@ -2623,10 +2741,10 @@
     </row>
     <row r="64" spans="1:9" ht="30">
       <c r="A64" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>16</v>
@@ -2669,659 +2787,648 @@
         <v>40</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="31"/>
+    <row r="67" spans="1:9" ht="30">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="28"/>
     </row>
     <row r="68" spans="1:9" ht="30">
-      <c r="A68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="7"/>
+        <v>202</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" ht="30">
+      <c r="A70" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="28"/>
-    </row>
-    <row r="70" spans="1:9" ht="45">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" ht="45">
+    <row r="71" spans="1:9">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="45">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>208</v>
+        <v>123</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="74" spans="1:9" ht="30">
-      <c r="A74" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="7" t="s">
+    <row r="73" spans="1:9" ht="45">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="28"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+    </row>
+    <row r="75" spans="1:9" ht="30">
+      <c r="A75" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="28"/>
-    </row>
-    <row r="75" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="45">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="28"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="28"/>
+    <row r="78" spans="1:9">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="1:9" ht="30">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D79" s="7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" ht="30">
+    <row r="80" spans="1:9" ht="39.75" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="7">
-        <v>12345678</v>
+        <v>27</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="28"/>
     </row>
-    <row r="81" spans="1:10" ht="45">
+    <row r="81" spans="1:10" ht="30">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="28"/>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="27"/>
+    <row r="82" spans="1:10" ht="30">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:10" ht="30">
-      <c r="A83" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="28"/>
     </row>
-    <row r="84" spans="1:10" ht="90">
+    <row r="84" spans="1:10" ht="30">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>16</v>
+        <v>139</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:10" ht="45">
+    <row r="85" spans="1:10" ht="30">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>84</v>
+        <v>141</v>
+      </c>
+      <c r="F85" s="7">
+        <v>12345678</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="27"/>
-    </row>
-    <row r="87" spans="1:10" ht="30">
-      <c r="A87" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7" t="s">
+    <row r="86" spans="1:10" ht="45">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="28"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="27"/>
+    </row>
+    <row r="88" spans="1:10" ht="30">
+      <c r="A88" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="90">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="30">
+      <c r="H88" s="7"/>
+      <c r="I88" s="28"/>
+    </row>
+    <row r="89" spans="1:10" ht="90">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="30">
+        <v>16</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="28"/>
+    </row>
+    <row r="90" spans="1:10" ht="45">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-    </row>
-    <row r="92" spans="1:10" ht="30">
-      <c r="A92" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="F90" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="28"/>
+    </row>
+    <row r="91" spans="1:10" ht="30">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="28"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" spans="1:10" ht="30">
+      <c r="A93" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="90">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F94" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G94" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="28"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="95" spans="1:10" ht="30">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="30">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+    </row>
+    <row r="98" spans="1:10" ht="30">
+      <c r="A98" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="28"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="27"/>
-    </row>
-    <row r="97" spans="1:9" ht="30">
-      <c r="A97" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="7" t="s">
+      <c r="D98" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F98" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="28"/>
-    </row>
-    <row r="98" spans="1:9" ht="90">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="28"/>
-    </row>
-    <row r="99" spans="1:9" ht="30">
+    </row>
+    <row r="99" spans="1:10" ht="27.75" customHeight="1">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="28"/>
-    </row>
-    <row r="100" spans="1:9" ht="45">
-      <c r="A100" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="30">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" ht="45">
+    <row r="101" spans="1:10" ht="30">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -3329,17 +3436,20 @@
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="28"/>
-    </row>
-    <row r="103" spans="1:9" ht="30">
+      <c r="H102" s="25"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" ht="30">
       <c r="A103" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D103" s="7" t="s">
         <v>17</v>
       </c>
@@ -3355,7 +3465,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" ht="90">
+    <row r="104" spans="1:10" ht="90">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3374,198 +3484,240 @@
       <c r="H104" s="7"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10" ht="30">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7" t="s">
+    <row r="106" spans="1:10" s="37" customFormat="1">
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="36"/>
+    </row>
+    <row r="107" spans="1:10" ht="45">
+      <c r="A107" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="28"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
       <c r="H107" s="7"/>
       <c r="I107" s="28"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
-      <c r="A108" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>178</v>
-      </c>
+    <row r="108" spans="1:10" ht="45">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>19</v>
+        <v>165</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="28"/>
     </row>
-    <row r="109" spans="1:9" ht="90">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="109" spans="1:10">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
       <c r="H109" s="7"/>
       <c r="I109" s="28"/>
     </row>
-    <row r="110" spans="1:9" ht="45">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+    <row r="110" spans="1:10" ht="30">
+      <c r="A110" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="28"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:10" ht="90">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="28"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="H112" s="7"/>
       <c r="I112" s="28"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+      <c r="D113" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="H113" s="7"/>
       <c r="I113" s="28"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
       <c r="H114" s="7"/>
       <c r="I114" s="28"/>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+    <row r="115" spans="1:9" ht="30">
+      <c r="A115" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H115" s="7"/>
       <c r="I115" s="28"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="90">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
+      <c r="D116" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H116" s="7"/>
       <c r="I116" s="28"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+      <c r="D117" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H117" s="7"/>
       <c r="I117" s="28"/>
     </row>
@@ -8309,6 +8461,72 @@
       <c r="G548" s="7"/>
       <c r="H548" s="7"/>
       <c r="I548" s="28"/>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" s="7"/>
+      <c r="B549" s="7"/>
+      <c r="C549" s="7"/>
+      <c r="D549" s="7"/>
+      <c r="E549" s="7"/>
+      <c r="F549" s="7"/>
+      <c r="G549" s="7"/>
+      <c r="H549" s="7"/>
+      <c r="I549" s="28"/>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" s="7"/>
+      <c r="B550" s="7"/>
+      <c r="C550" s="7"/>
+      <c r="D550" s="7"/>
+      <c r="E550" s="7"/>
+      <c r="F550" s="7"/>
+      <c r="G550" s="7"/>
+      <c r="H550" s="7"/>
+      <c r="I550" s="28"/>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" s="7"/>
+      <c r="B551" s="7"/>
+      <c r="C551" s="7"/>
+      <c r="D551" s="7"/>
+      <c r="E551" s="7"/>
+      <c r="F551" s="7"/>
+      <c r="G551" s="7"/>
+      <c r="H551" s="7"/>
+      <c r="I551" s="28"/>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" s="7"/>
+      <c r="B552" s="7"/>
+      <c r="C552" s="7"/>
+      <c r="D552" s="7"/>
+      <c r="E552" s="7"/>
+      <c r="F552" s="7"/>
+      <c r="G552" s="7"/>
+      <c r="H552" s="7"/>
+      <c r="I552" s="28"/>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" s="7"/>
+      <c r="B553" s="7"/>
+      <c r="C553" s="7"/>
+      <c r="D553" s="7"/>
+      <c r="E553" s="7"/>
+      <c r="F553" s="7"/>
+      <c r="G553" s="7"/>
+      <c r="H553" s="7"/>
+      <c r="I553" s="28"/>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" s="7"/>
+      <c r="B554" s="7"/>
+      <c r="C554" s="7"/>
+      <c r="D554" s="7"/>
+      <c r="E554" s="7"/>
+      <c r="F554" s="7"/>
+      <c r="G554" s="7"/>
+      <c r="H554" s="7"/>
+      <c r="I554" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8325,29 +8543,31 @@
     <hyperlink ref="C41" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
     <hyperlink ref="F43" r:id="rId3"/>
     <hyperlink ref="F52" r:id="rId4"/>
-    <hyperlink ref="F54" r:id="rId5"/>
-    <hyperlink ref="F55" r:id="rId6"/>
-    <hyperlink ref="F57" r:id="rId7"/>
-    <hyperlink ref="F61" r:id="rId8"/>
-    <hyperlink ref="F64" r:id="rId9"/>
-    <hyperlink ref="F66" r:id="rId10"/>
-    <hyperlink ref="F68" r:id="rId11"/>
-    <hyperlink ref="F71" r:id="rId12"/>
-    <hyperlink ref="F70" r:id="rId13"/>
-    <hyperlink ref="F74" r:id="rId14"/>
-    <hyperlink ref="F78" r:id="rId15"/>
-    <hyperlink ref="F79" r:id="rId16"/>
-    <hyperlink ref="F83" r:id="rId17"/>
-    <hyperlink ref="F92" r:id="rId18"/>
-    <hyperlink ref="F87" r:id="rId19"/>
-    <hyperlink ref="F97" r:id="rId20"/>
-    <hyperlink ref="F103" r:id="rId21"/>
-    <hyperlink ref="F108" r:id="rId22"/>
+    <hyperlink ref="F55" r:id="rId5"/>
+    <hyperlink ref="F57" r:id="rId6"/>
+    <hyperlink ref="F61" r:id="rId7"/>
+    <hyperlink ref="F64" r:id="rId8"/>
+    <hyperlink ref="F66" r:id="rId9"/>
+    <hyperlink ref="F70" r:id="rId10"/>
+    <hyperlink ref="F73" r:id="rId11"/>
+    <hyperlink ref="F72" r:id="rId12"/>
+    <hyperlink ref="F79" r:id="rId13"/>
+    <hyperlink ref="F83" r:id="rId14"/>
+    <hyperlink ref="F84" r:id="rId15"/>
+    <hyperlink ref="F88" r:id="rId16"/>
+    <hyperlink ref="F98" r:id="rId17"/>
+    <hyperlink ref="F93" r:id="rId18"/>
+    <hyperlink ref="F103" r:id="rId19"/>
+    <hyperlink ref="F110" r:id="rId20"/>
+    <hyperlink ref="F115" r:id="rId21"/>
+    <hyperlink ref="F47" r:id="rId22"/>
     <hyperlink ref="C13" location="Sheet1!A10" display="Tc002_Reg_useraccount"/>
-    <hyperlink ref="F47" r:id="rId23"/>
+    <hyperlink ref="F54" r:id="rId23"/>
+    <hyperlink ref="F67" r:id="rId24"/>
+    <hyperlink ref="F75" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -8372,39 +8592,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30">
       <c r="A1" s="32" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>198</v>
-      </c>
       <c r="F1" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -8421,7 +8641,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8438,7 +8658,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8455,7 +8675,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -8472,7 +8692,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8525,12 +8745,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="105">
+      <c r="A2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="75">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>